--- a/ali-dita-airclassroom.xlsx
+++ b/ali-dita-airclassroom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>File</t>
   </si>
@@ -48,61 +48,85 @@
     <t>Expires</t>
   </si>
   <si>
-    <t>c-intro.dita</t>
-  </si>
-  <si>
-    <t>m-map.ditamap</t>
-  </si>
-  <si>
     <t>concept</t>
   </si>
   <si>
     <t>task</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>c-intro</t>
-  </si>
-  <si>
-    <t>m-map</t>
-  </si>
-  <si>
-    <t>Fitts/Green</t>
-  </si>
-  <si>
-    <t>github.com/Ali.Fitts.Green.DITA.video/c-intro.dita</t>
-  </si>
-  <si>
     <t>github.com/Ali.Fitts.Green.DITA.video/m-map.ditamap</t>
   </si>
   <si>
-    <t>t-physical.dita</t>
-  </si>
-  <si>
-    <t>github.com/Ali.Fitts.Green.DITA.video/t-physical.dita</t>
-  </si>
-  <si>
-    <t>t-cognitive.dita</t>
-  </si>
-  <si>
-    <t>t-physical</t>
-  </si>
-  <si>
-    <t>t-cognitive</t>
-  </si>
-  <si>
-    <t>t-affective.dita</t>
-  </si>
-  <si>
-    <t>t-affective</t>
-  </si>
-  <si>
     <t>github.com/Ali.Fitts.Green.DITA.video/t-cognitive.dita</t>
   </si>
   <si>
     <t>github.com/Ali.Fitts.Green.DITA.video/t-affective.dita</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>c-food-suggestion.dita</t>
+  </si>
+  <si>
+    <t>c-introduction-professional.dita</t>
+  </si>
+  <si>
+    <t>c-introduction-student.dita</t>
+  </si>
+  <si>
+    <t>c-price.dita</t>
+  </si>
+  <si>
+    <t>c-room-rules.dita</t>
+  </si>
+  <si>
+    <t>c-troubleshoot.dita</t>
+  </si>
+  <si>
+    <t>c-works-cited.dita</t>
+  </si>
+  <si>
+    <t>i-shanks.jpg</t>
+  </si>
+  <si>
+    <t>t-adobe-programs.dita</t>
+  </si>
+  <si>
+    <t>t-cleaning.dita</t>
+  </si>
+  <si>
+    <t>t-computer.dita</t>
+  </si>
+  <si>
+    <t>t-internet.dita</t>
+  </si>
+  <si>
+    <t>t-parking.dita</t>
+  </si>
+  <si>
+    <t>t-projector.dita</t>
+  </si>
+  <si>
+    <t>t-room-rearrange.dita</t>
+  </si>
+  <si>
+    <t>t-two-factor.dita</t>
+  </si>
+  <si>
+    <t>c-computer-programs.dita</t>
+  </si>
+  <si>
+    <t>c-computer-programs</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-computer-programs.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-food-suggestion.dita</t>
   </si>
 </sst>
 </file>
@@ -529,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,151 +595,455 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>42682</v>
+        <v>42693</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="2">
-        <v>42682</v>
+        <v>42694</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2">
-        <v>43777</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
-        <v>42682</v>
+        <v>42693</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="2">
-        <v>42682</v>
+        <v>42694</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2">
-        <v>43777</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>42682</v>
+        <v>42693</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="2">
-        <v>42682</v>
+        <v>42694</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2">
-        <v>43777</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>42682</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="2">
-        <v>42682</v>
+        <v>42694</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2">
-        <v>43777</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>42682</v>
+        <v>42693</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="2">
-        <v>42682</v>
+        <v>42694</v>
       </c>
       <c r="L6" s="2">
-        <v>43777</v>
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J7" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J11" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J13" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J14" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J15" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J16" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L16" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J17" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J18" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J19" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L19" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42693</v>
+      </c>
+      <c r="J20" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L20" s="2">
+        <v>43789</v>
       </c>
     </row>
   </sheetData>

--- a/ali-dita-airclassroom.xlsx
+++ b/ali-dita-airclassroom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>File</t>
   </si>
@@ -54,15 +54,6 @@
     <t>task</t>
   </si>
   <si>
-    <t>github.com/Ali.Fitts.Green.DITA.video/m-map.ditamap</t>
-  </si>
-  <si>
-    <t>github.com/Ali.Fitts.Green.DITA.video/t-cognitive.dita</t>
-  </si>
-  <si>
-    <t>github.com/Ali.Fitts.Green.DITA.video/t-affective.dita</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
@@ -126,7 +117,13 @@
     <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-computer-programs.dita</t>
   </si>
   <si>
-    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-food-suggestion.dita</t>
+    <t>i-mac.png</t>
+  </si>
+  <si>
+    <t>i-projector.jpg</t>
+  </si>
+  <si>
+    <t>i-remote.jpg</t>
   </si>
 </sst>
 </file>
@@ -194,14 +191,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -218,12 +221,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -595,22 +605,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>42693</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -625,22 +635,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>42693</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -655,22 +665,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>42693</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -685,22 +695,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>42693</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -715,22 +725,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>42693</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -744,20 +754,26 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>42693</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="2">
         <v>42694</v>
       </c>
@@ -767,20 +783,26 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>42693</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="2">
         <v>42694</v>
       </c>
@@ -790,20 +812,26 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>42693</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="2">
         <v>42694</v>
       </c>
@@ -813,20 +841,26 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>42693</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="2">
         <v>42694</v>
       </c>
@@ -836,20 +870,26 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>42693</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="2">
         <v>42694</v>
       </c>
@@ -859,20 +899,26 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>42693</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="2">
         <v>42694</v>
       </c>
@@ -882,20 +928,26 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <v>42693</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2">
         <v>42694</v>
       </c>
@@ -905,20 +957,26 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>42693</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="2">
         <v>42694</v>
       </c>
@@ -928,20 +986,26 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>42693</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2">
         <v>42694</v>
       </c>
@@ -951,20 +1015,26 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>42693</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="2">
         <v>42694</v>
       </c>
@@ -974,20 +1044,26 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>42693</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="2">
         <v>42694</v>
       </c>
@@ -997,34 +1073,55 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>42693</v>
-      </c>
-      <c r="J18" s="2">
-        <v>42694</v>
-      </c>
-      <c r="L18" s="2">
-        <v>43789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>42693</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="2">
         <v>42694</v>
       </c>
@@ -1033,12 +1130,27 @@
       </c>
     </row>
     <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>42693</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="2">
         <v>42694</v>
       </c>
@@ -1046,9 +1158,200 @@
         <v>43789</v>
       </c>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42693</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="2">
+        <v>42694</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="34">
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>

--- a/ali-dita-airclassroom.xlsx
+++ b/ali-dita-airclassroom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
   <si>
     <t>File</t>
   </si>
@@ -72,9 +72,6 @@
     <t>c-room-rules.dita</t>
   </si>
   <si>
-    <t>c-troubleshoot.dita</t>
-  </si>
-  <si>
     <t>c-works-cited.dita</t>
   </si>
   <si>
@@ -124,6 +121,18 @@
   </si>
   <si>
     <t>i-remote.jpg</t>
+  </si>
+  <si>
+    <t>i-map.jpg</t>
+  </si>
+  <si>
+    <t>i-turners.jpg</t>
+  </si>
+  <si>
+    <t>i.adobe.png</t>
+  </si>
+  <si>
+    <t>i-lab.jpg</t>
   </si>
 </sst>
 </file>
@@ -563,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -605,13 +614,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -620,7 +629,7 @@
         <v>42693</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -650,7 +659,7 @@
         <v>42693</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -680,7 +689,7 @@
         <v>42693</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -710,7 +719,7 @@
         <v>42693</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -740,7 +749,7 @@
         <v>42693</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -769,7 +778,7 @@
         <v>42693</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -798,7 +807,7 @@
         <v>42693</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -815,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -827,7 +836,7 @@
         <v>42693</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -844,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -856,7 +865,7 @@
         <v>42693</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -885,7 +894,7 @@
         <v>42693</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -914,7 +923,7 @@
         <v>42693</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -943,7 +952,7 @@
         <v>42693</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -972,7 +981,7 @@
         <v>42693</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1001,7 +1010,7 @@
         <v>42693</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1030,7 +1039,7 @@
         <v>42693</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1059,7 +1068,7 @@
         <v>42693</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1073,13 +1082,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1088,7 +1097,7 @@
         <v>42693</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1105,7 +1114,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1117,7 +1126,7 @@
         <v>42693</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1134,7 +1143,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1146,7 +1155,7 @@
         <v>42693</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1163,7 +1172,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1175,7 +1184,7 @@
         <v>42693</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1188,6 +1197,15 @@
       </c>
     </row>
     <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>42693</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1208,6 +1226,15 @@
       </c>
     </row>
     <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>42693</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1228,6 +1255,15 @@
       </c>
     </row>
     <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1271,7 @@
         <v>42693</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1248,24 +1284,10 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>42693</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="2">
-        <v>42694</v>
-      </c>
-      <c r="L25" s="2">
-        <v>43789</v>
-      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12">
       <c r="F26" s="8"/>
@@ -1315,28 +1337,22 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="6:9">
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
+    <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -1351,7 +1367,6 @@
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>

--- a/ali-dita-airclassroom.xlsx
+++ b/ali-dita-airclassroom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>File</t>
   </si>
@@ -114,6 +114,9 @@
     <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-computer-programs.dita</t>
   </si>
   <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-food-suggestion.dita</t>
+  </si>
+  <si>
     <t>i-mac.png</t>
   </si>
   <si>
@@ -133,6 +136,69 @@
   </si>
   <si>
     <t>i-lab.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-introduction-professional.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-introduction-student.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-price.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-room-rules.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/c-works-cited.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-shanks.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-adobe-programs.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-cleaning.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-computer.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-internet.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-parking.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-projector.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-room-rearrange.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/t-two-factor.dita</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-mac.png</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-projector.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-remote.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-map.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-turners.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i.adobe.png</t>
+  </si>
+  <si>
+    <t>https://github.com/sanahali/ali.dita.airclassroon/blob/master/i-lab.jpg</t>
   </si>
 </sst>
 </file>
@@ -200,8 +266,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -232,17 +300,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,7 +645,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -659,7 +729,7 @@
         <v>42693</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -689,7 +759,7 @@
         <v>42693</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -719,7 +789,7 @@
         <v>42693</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -749,7 +819,7 @@
         <v>42693</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -778,7 +848,7 @@
         <v>42693</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -807,7 +877,7 @@
         <v>42693</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -836,7 +906,7 @@
         <v>42693</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -865,7 +935,7 @@
         <v>42693</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -894,7 +964,7 @@
         <v>42693</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -923,7 +993,7 @@
         <v>42693</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -952,7 +1022,7 @@
         <v>42693</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -981,7 +1051,7 @@
         <v>42693</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1010,7 +1080,7 @@
         <v>42693</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1039,7 +1109,7 @@
         <v>42693</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1068,7 +1138,7 @@
         <v>42693</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1082,13 +1152,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1097,7 +1167,7 @@
         <v>42693</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1111,13 +1181,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1126,7 +1196,7 @@
         <v>42693</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1140,13 +1210,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1155,7 +1225,7 @@
         <v>42693</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1169,13 +1239,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1184,7 +1254,7 @@
         <v>42693</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1198,13 +1268,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1213,7 +1283,7 @@
         <v>42693</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1227,13 +1297,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1242,7 +1312,7 @@
         <v>42693</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1256,13 +1326,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1271,7 +1341,7 @@
         <v>42693</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
